--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2414154.805953078</v>
+        <v>-2416737.838022806</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>15.83694765564068</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>46.27144787879951</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646378</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>48.21534234085891</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>65.11186635552839</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.93649886016408</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>274.1686863940896</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>124.9197536398486</v>
       </c>
       <c r="U7" t="n">
-        <v>96.45241367356461</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>65.79250734700815</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,10 +1187,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>242.6337954275702</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>63.10700780326998</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>127.6496787807632</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272878</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>219.8219900338584</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>268.0283327644021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>8.579726596858308</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>21.90286287505407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>160.3243999861108</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>127.6210071331218</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699814</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673011</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149752</v>
+        <v>171.0385136149753</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316657</v>
+        <v>158.4533545316659</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512502</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796071</v>
+        <v>44.76793778823321</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>156.7306717253069</v>
       </c>
       <c r="H28" t="n">
-        <v>128.0097230135505</v>
+        <v>131.5012462792619</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160357</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315957</v>
+        <v>57.58178014315972</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346825</v>
+        <v>172.2328194346826</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603262</v>
+        <v>208.6119837603263</v>
       </c>
       <c r="U28" t="n">
-        <v>277.391007822282</v>
+        <v>277.3910078222822</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568659</v>
+        <v>243.344176756866</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696289</v>
+        <v>277.729531769629</v>
       </c>
       <c r="X28" t="n">
-        <v>216.916188822075</v>
+        <v>216.9161888220752</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851327</v>
+        <v>209.7911867851328</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652594</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.208022973022</v>
+        <v>1992.201838557433</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539435</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2694.273621298224</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2320.807863037144</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y2" t="n">
-        <v>2320.807863037144</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811079</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999809</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8459426266614</v>
+        <v>361.315157512487</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8459426266614</v>
+        <v>361.315157512487</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143257</v>
+        <v>361.315157512487</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.788049458848</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886954</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068852</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596437</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181844</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757124</v>
+        <v>872.1846398173174</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757124</v>
+        <v>650.4180243868434</v>
       </c>
       <c r="U4" t="n">
-        <v>765.2869866004312</v>
+        <v>361.315157512487</v>
       </c>
       <c r="V4" t="n">
-        <v>765.2869866004312</v>
+        <v>361.315157512487</v>
       </c>
       <c r="W4" t="n">
-        <v>765.2869866004312</v>
+        <v>361.315157512487</v>
       </c>
       <c r="X4" t="n">
-        <v>765.2869866004312</v>
+        <v>361.315157512487</v>
       </c>
       <c r="Y4" t="n">
-        <v>544.4944074569011</v>
+        <v>361.315157512487</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,16 +4565,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263129</v>
+        <v>2332.07795407525</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287318</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
         <v>458.9189605332749</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.9544330261738</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D7" t="n">
-        <v>163.837793613838</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
         <v>163.837793613838</v>
@@ -4753,22 +4753,22 @@
         <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>513.1890950693588</v>
       </c>
       <c r="U7" t="n">
-        <v>541.9439839241911</v>
+        <v>513.1890950693588</v>
       </c>
       <c r="V7" t="n">
-        <v>541.9439839241911</v>
+        <v>513.1890950693588</v>
       </c>
       <c r="W7" t="n">
-        <v>541.9439839241911</v>
+        <v>513.1890950693588</v>
       </c>
       <c r="X7" t="n">
-        <v>313.9544330261738</v>
+        <v>513.1890950693588</v>
       </c>
       <c r="Y7" t="n">
-        <v>313.9544330261738</v>
+        <v>513.1890950693588</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>894.5676446164455</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645722</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.955462799692</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="9">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.6654861422326</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
         <v>66.5121164321834</v>
@@ -4987,25 +4987,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>857.1425534916496</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>857.1425534916496</v>
+        <v>791.9479363426665</v>
       </c>
       <c r="U10" t="n">
-        <v>857.1425534916496</v>
+        <v>502.84506946831</v>
       </c>
       <c r="V10" t="n">
-        <v>602.4580652857627</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W10" t="n">
-        <v>602.4580652857627</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X10" t="n">
-        <v>602.4580652857627</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y10" t="n">
-        <v>381.6654861422326</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>532.5350811160199</v>
+        <v>762.5348780504986</v>
       </c>
       <c r="C13" t="n">
-        <v>532.5350811160199</v>
+        <v>762.5348780504986</v>
       </c>
       <c r="D13" t="n">
-        <v>382.4184417036842</v>
+        <v>612.4182386381628</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.418666334894</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.734178129007</v>
       </c>
       <c r="W13" t="n">
-        <v>1162.965675987807</v>
+        <v>1211.317008092046</v>
       </c>
       <c r="X13" t="n">
-        <v>934.9761250897898</v>
+        <v>983.3274571940287</v>
       </c>
       <c r="Y13" t="n">
-        <v>714.1835459462596</v>
+        <v>762.5348780504986</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400716</v>
+        <v>869.6905094135295</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121647</v>
+        <v>700.7543264856226</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121647</v>
+        <v>550.6376870732869</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138414</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703113</v>
+        <v>878.3568999154066</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2322.475387565878</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2322.475387565878</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>2817.800993781637</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>2817.800993781637</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>3445.398957336244</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703115</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>533.5582272005026</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>483.8760050556307</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>483.8760050556307</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>483.8760050556307</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>174.9680746127088</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038341</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138413</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703115</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356199</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232841</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.701244340891</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2251.007271617388</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2031.40580664033</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1742.330579984527</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1487.64609177864</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1198.22892174168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.22892174168</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,16 +6075,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611046116</v>
+        <v>663.4384611046097</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382828</v>
+        <v>503.3845676382805</v>
       </c>
       <c r="D28" t="n">
-        <v>362.150217687525</v>
+        <v>503.3845676382805</v>
       </c>
       <c r="E28" t="n">
-        <v>223.1194135667097</v>
+        <v>458.164428458247</v>
       </c>
       <c r="F28" t="n">
-        <v>223.1194135667097</v>
+        <v>458.164428458247</v>
       </c>
       <c r="G28" t="n">
-        <v>223.1194135667097</v>
+        <v>299.8506186347047</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>167.0210769384805</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795882</v>
+        <v>182.758213379588</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064193</v>
+        <v>453.1530078064189</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836517</v>
+        <v>852.2571338836512</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515979</v>
+        <v>1282.972368515978</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.08777207728</v>
+        <v>1709.087772077279</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687558</v>
+        <v>2087.322584687556</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162409</v>
+        <v>2388.703572162407</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.6073387906</v>
+        <v>2516.607338790599</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504581</v>
+        <v>2458.443924504579</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621063</v>
+        <v>2284.471379621061</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105582</v>
+        <v>2073.75220410558</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911357</v>
+        <v>1793.559266911356</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167048</v>
+        <v>1547.757068167047</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591665</v>
+        <v>1267.222187591664</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.114926155226</v>
+        <v>1048.114926155224</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732735</v>
+        <v>836.2046364732716</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580115</v>
@@ -6613,7 +6613,7 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6661,7 +6661,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6856,7 +6856,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6871,10 +6871,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2383.002557118213</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2980.381044744765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3607.979008299372</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4159.888738538659</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,49 +7096,49 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565681</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150015</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>349.4359441153669</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>302.9695208386135</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>141.553682990583</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>221.0999718500845</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819412</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>66.36248435538577</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>18.49466557218892</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>171.252253585079</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>124.5310997715151</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>6.922421112517071</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0.9259388694759849</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.40527886852278</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>40.30478226780136</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823099</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194304</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.8220064512504</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>92.87255829137401</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559691</v>
+        <v>136.6275814559693</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253067</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.491523265711345</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160342</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1395951.264329688</v>
+        <v>1395951.264329687</v>
       </c>
     </row>
     <row r="11">
@@ -26314,16 +26314,16 @@
         <v>32904.09773687493</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="E2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450032</v>
       </c>
       <c r="G2" t="n">
         <v>40357.32998450029</v>
@@ -26332,28 +26332,28 @@
         <v>40357.32998450028</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="J2" t="n">
-        <v>40608.90191777585</v>
+        <v>40608.90191777581</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="L2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="N2" t="n">
         <v>41052.08849321419</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321417</v>
       </c>
       <c r="O2" t="n">
         <v>41052.0884932142</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>224565.9756508471</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006209</v>
+        <v>12392.9447400622</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569701</v>
+        <v>7034.773253569553</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006212</v>
+        <v>12392.94474006223</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="H4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>16046.583971892</v>
       </c>
-      <c r="I4" t="n">
-        <v>16046.58397189197</v>
-      </c>
       <c r="J4" t="n">
-        <v>18940.07269946543</v>
+        <v>18940.07269946538</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498546</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.4432349855</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="O4" t="n">
         <v>24037.44323498544</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404359.235541117</v>
+        <v>-1404766.635078934</v>
       </c>
       <c r="C6" t="n">
         <v>-160478.5961722317</v>
@@ -26528,40 +26528,40 @@
         <v>-160478.5961722317</v>
       </c>
       <c r="E6" t="n">
-        <v>-402224.245618654</v>
+        <v>-402258.9835440899</v>
       </c>
       <c r="F6" t="n">
-        <v>-76811.78381129878</v>
+        <v>-76846.52173673446</v>
       </c>
       <c r="G6" t="n">
-        <v>-76811.7838112988</v>
+        <v>-76846.5217367345</v>
       </c>
       <c r="H6" t="n">
-        <v>-76811.78381129882</v>
+        <v>-76846.5217367345</v>
       </c>
       <c r="I6" t="n">
-        <v>-76811.78381129878</v>
+        <v>-76846.52173673452</v>
       </c>
       <c r="J6" t="n">
-        <v>-304758.9341972618</v>
+        <v>-304781.0935260336</v>
       </c>
       <c r="K6" t="n">
-        <v>-98542.41533574872</v>
+        <v>-98542.41533574888</v>
       </c>
       <c r="L6" t="n">
-        <v>-86149.47059568665</v>
+        <v>-86149.47059568664</v>
       </c>
       <c r="M6" t="n">
         <v>-171204.4985311985</v>
       </c>
       <c r="N6" t="n">
-        <v>-86149.47059568671</v>
+        <v>-86149.47059568665</v>
       </c>
       <c r="O6" t="n">
-        <v>-93184.24384925634</v>
+        <v>-93184.24384925619</v>
       </c>
       <c r="P6" t="n">
-        <v>-98542.41533574878</v>
+        <v>-98542.41533574891</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507762</v>
+        <v>15.49118092507775</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962126</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507765</v>
+        <v>15.49118092507779</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507762</v>
+        <v>15.49118092507775</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>344.7973428033165</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>95.56241428437943</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27825,10 +27825,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>94.62919563632062</v>
       </c>
       <c r="U7" t="n">
-        <v>189.7594245320483</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>316.1378627252536</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>143.6041432284834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>126.6620175281719</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>91.89927049540599</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-7.032208304403592e-13</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566962115</v>
+        <v>8.793466566961959</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>567.7870775946146</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>216.8572963387068</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>638.4800548179295</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33500,10 +33500,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,10 +33737,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>508.374771698973</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>425.1908331501702</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,7 +35960,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>90.0196696720401</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>496.3460208959112</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>291.8458072502408</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991547</v>
+        <v>89.83994982991531</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765971</v>
+        <v>273.1260549765969</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860935</v>
+        <v>403.1354808860934</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680073</v>
+        <v>435.0658935680071</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568696</v>
+        <v>430.4195995568693</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730076</v>
+        <v>382.0553662730074</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735871</v>
+        <v>304.4252398735869</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668605</v>
+        <v>129.1957238668603</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37148,10 +37148,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37385,10 +37385,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8203919190988</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
